--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parse_ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9859ECC9-C9AD-4CF6-997D-38FE45513197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4624E-9CE6-4B5A-A8BD-7742DDD58666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
   <si>
     <t>orig</t>
   </si>
@@ -622,12 +622,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,29 +687,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -988,7 +999,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,34 +1025,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>2050300</v>
+        <v>2000000</v>
       </c>
       <c r="D2">
-        <v>2034000</v>
+        <v>2010280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>B2</f>
-        <v>Хабаровск</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>A2</f>
-        <v>Благовещенск</v>
-      </c>
-      <c r="C3" s="1">
-        <f>D2</f>
-        <v>2034000</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C2</f>
-        <v>2050300</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2000000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2064049</v>
       </c>
     </row>
   </sheetData>
